--- a/Documentacion/Diagrama_de_Gantt.xlsx
+++ b/Documentacion/Diagrama_de_Gantt.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB864464-939B-475E-AB14-34B162848CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E672DF0-7B82-4AB2-986B-AEA059D644B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Acerca de" sheetId="12" r:id="rId1"/>
+    <sheet name="Acerca de" sheetId="12" state="hidden" r:id="rId1"/>
     <sheet name="Ligero" sheetId="17" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="20" r:id="rId3"/>
-    <sheet name="Oscuro" sheetId="16" r:id="rId4"/>
-    <sheet name="Color" sheetId="18" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="20" state="hidden" r:id="rId3"/>
+    <sheet name="Oscuro" sheetId="16" state="hidden" r:id="rId4"/>
+    <sheet name="Color" sheetId="18" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Hoy" localSheetId="4">TODAY()</definedName>
@@ -3411,7 +3411,7 @@
   <dimension ref="A2:AG39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="84" zoomScaleNormal="91" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -5036,7 +5036,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" s="1" customFormat="1" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="57" t="s">
         <v>52</v>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="D26" s="53"/>
       <c r="E26" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="55">
         <v>45089</v>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="D27" s="53"/>
       <c r="E27" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="55">
         <v>45089</v>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="D28" s="53"/>
       <c r="E28" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="55">
         <v>45092</v>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D29" s="53"/>
       <c r="E29" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="55">
         <v>45093</v>
@@ -6155,14 +6155,14 @@
       </c>
       <c r="D31" s="53"/>
       <c r="E31" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="55">
-        <f>F29+3</f>
-        <v>45096</v>
+        <f>F29+1</f>
+        <v>45094</v>
       </c>
       <c r="G31" s="56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="53"/>
       <c r="I31" s="24" t="str">
@@ -6276,13 +6276,13 @@
       </c>
       <c r="D32" s="53"/>
       <c r="E32" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="55">
         <v>45096</v>
       </c>
       <c r="G32" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="53"/>
       <c r="I32" s="24" t="str">
@@ -6396,13 +6396,13 @@
       </c>
       <c r="D33" s="53"/>
       <c r="E33" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="55">
-        <v>45097</v>
+        <v>45096</v>
       </c>
       <c r="G33" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="53"/>
       <c r="I33" s="24" t="str">
@@ -6516,13 +6516,13 @@
       </c>
       <c r="D34" s="53"/>
       <c r="E34" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="55">
-        <v>45099</v>
+        <v>45096</v>
       </c>
       <c r="G34" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="53"/>
       <c r="I34" s="24" t="str">
@@ -6636,10 +6636,10 @@
       </c>
       <c r="D35" s="53"/>
       <c r="E35" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="55">
-        <v>45100</v>
+        <v>45098</v>
       </c>
       <c r="G35" s="56">
         <v>1</v>
@@ -6733,17 +6733,17 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AE35" s="24" t="str">
+      <c r="AE35" s="24">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AF35" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AG35" s="24">
+      <c r="AG35" s="24" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="C6" s="32" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Hitos435[Inicio])=0,TODAY(),B11(Hitos435[Inicio])),TODAY())</f>
-        <v>45086</v>
+        <v>45096</v>
       </c>
       <c r="D6" s="122"/>
       <c r="E6" s="30"/>
@@ -7440,7 +7440,7 @@
       <c r="V6" s="86"/>
       <c r="W6" s="86" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v/>
+        <v>julio</v>
       </c>
       <c r="X6" s="86"/>
       <c r="Y6" s="86"/>
@@ -7450,7 +7450,7 @@
       <c r="AC6" s="86"/>
       <c r="AD6" s="86" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"mmmm")=W6,TEXT(AD7,"mmmm")=P6,TEXT(AD7,"mmmm")=I6),"",TEXT(AD7,"mmmm"))</f>
-        <v>julio</v>
+        <v/>
       </c>
       <c r="AE6" s="86"/>
       <c r="AF6" s="86"/>
@@ -7480,7 +7480,7 @@
       <c r="AX6" s="86"/>
       <c r="AY6" s="86" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v/>
+        <v>agosto</v>
       </c>
       <c r="AZ6" s="86"/>
       <c r="BA6" s="86"/>
@@ -7515,227 +7515,227 @@
       <c r="H7" s="27"/>
       <c r="I7" s="115">
         <f ca="1">IFERROR(Inicio_del_proyecto+Incremento_de_desplazamiento,TODAY())</f>
-        <v>45087</v>
+        <v>45097</v>
       </c>
       <c r="J7" s="116">
         <f ca="1">I7+1</f>
-        <v>45088</v>
+        <v>45098</v>
       </c>
       <c r="K7" s="116">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45089</v>
+        <v>45099</v>
       </c>
       <c r="L7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45090</v>
+        <v>45100</v>
       </c>
       <c r="M7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45091</v>
+        <v>45101</v>
       </c>
       <c r="N7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="O7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>45093</v>
+        <v>45103</v>
       </c>
       <c r="P7" s="116">
         <f ca="1">O7+1</f>
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="Q7" s="116">
         <f ca="1">P7+1</f>
-        <v>45095</v>
+        <v>45105</v>
       </c>
       <c r="R7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45096</v>
+        <v>45106</v>
       </c>
       <c r="S7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45097</v>
+        <v>45107</v>
       </c>
       <c r="T7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45098</v>
+        <v>45108</v>
       </c>
       <c r="U7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45099</v>
+        <v>45109</v>
       </c>
       <c r="V7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>45100</v>
+        <v>45110</v>
       </c>
       <c r="W7" s="116">
         <f ca="1">V7+1</f>
-        <v>45101</v>
+        <v>45111</v>
       </c>
       <c r="X7" s="116">
         <f ca="1">W7+1</f>
-        <v>45102</v>
+        <v>45112</v>
       </c>
       <c r="Y7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45103</v>
+        <v>45113</v>
       </c>
       <c r="Z7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45104</v>
+        <v>45114</v>
       </c>
       <c r="AA7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45105</v>
+        <v>45115</v>
       </c>
       <c r="AB7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45106</v>
+        <v>45116</v>
       </c>
       <c r="AC7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>45107</v>
+        <v>45117</v>
       </c>
       <c r="AD7" s="116">
         <f ca="1">AC7+1</f>
-        <v>45108</v>
+        <v>45118</v>
       </c>
       <c r="AE7" s="116">
         <f ca="1">AD7+1</f>
-        <v>45109</v>
+        <v>45119</v>
       </c>
       <c r="AF7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45110</v>
+        <v>45120</v>
       </c>
       <c r="AG7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45111</v>
+        <v>45121</v>
       </c>
       <c r="AH7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45112</v>
+        <v>45122</v>
       </c>
       <c r="AI7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45113</v>
+        <v>45123</v>
       </c>
       <c r="AJ7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>45114</v>
+        <v>45124</v>
       </c>
       <c r="AK7" s="116">
         <f ca="1">AJ7+1</f>
-        <v>45115</v>
+        <v>45125</v>
       </c>
       <c r="AL7" s="116">
         <f ca="1">AK7+1</f>
-        <v>45116</v>
+        <v>45126</v>
       </c>
       <c r="AM7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45117</v>
+        <v>45127</v>
       </c>
       <c r="AN7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45118</v>
+        <v>45128</v>
       </c>
       <c r="AO7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45119</v>
+        <v>45129</v>
       </c>
       <c r="AP7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45120</v>
+        <v>45130</v>
       </c>
       <c r="AQ7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>45121</v>
+        <v>45131</v>
       </c>
       <c r="AR7" s="116">
         <f ca="1">AQ7+1</f>
-        <v>45122</v>
+        <v>45132</v>
       </c>
       <c r="AS7" s="116">
         <f ca="1">AR7+1</f>
-        <v>45123</v>
+        <v>45133</v>
       </c>
       <c r="AT7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45124</v>
+        <v>45134</v>
       </c>
       <c r="AU7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45125</v>
+        <v>45135</v>
       </c>
       <c r="AV7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45126</v>
+        <v>45136</v>
       </c>
       <c r="AW7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>45127</v>
+        <v>45137</v>
       </c>
       <c r="AX7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>45128</v>
+        <v>45138</v>
       </c>
       <c r="AY7" s="116">
         <f ca="1">AX7+1</f>
-        <v>45129</v>
+        <v>45139</v>
       </c>
       <c r="AZ7" s="116">
         <f ca="1">AY7+1</f>
-        <v>45130</v>
+        <v>45140</v>
       </c>
       <c r="BA7" s="116">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45131</v>
+        <v>45141</v>
       </c>
       <c r="BB7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>45132</v>
+        <v>45142</v>
       </c>
       <c r="BC7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45143</v>
       </c>
       <c r="BD7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>45134</v>
+        <v>45144</v>
       </c>
       <c r="BE7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>45135</v>
+        <v>45145</v>
       </c>
       <c r="BF7" s="116">
         <f ca="1">BE7+1</f>
-        <v>45136</v>
+        <v>45146</v>
       </c>
       <c r="BG7" s="116">
         <f ca="1">BF7+1</f>
-        <v>45137</v>
+        <v>45147</v>
       </c>
       <c r="BH7" s="116">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45138</v>
+        <v>45148</v>
       </c>
       <c r="BI7" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>45139</v>
+        <v>45149</v>
       </c>
       <c r="BJ7" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>45140</v>
+        <v>45150</v>
       </c>
       <c r="BK7" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>45141</v>
+        <v>45151</v>
       </c>
       <c r="BL7" s="118">
         <f t="shared" ca="1" si="2"/>
-        <v>45142</v>
+        <v>45152</v>
       </c>
       <c r="BM7" s="30"/>
     </row>
@@ -7829,227 +7829,227 @@
       <c r="H9" s="43"/>
       <c r="I9" s="35" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="J9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="K9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="L9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="M9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="N9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="O9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="P9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="Q9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="R9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="S9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="T9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="U9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="V9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="W9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="X9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="Y9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="Z9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AA9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AB9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="AC9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="AD9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AE9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AF9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AG9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AH9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AI9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="AJ9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="AK9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AL9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AM9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AN9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AO9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AP9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="AQ9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="AR9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AS9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AT9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AU9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AV9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AW9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="AX9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="AY9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AZ9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BA9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="BB9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="BC9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="BD9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="BE9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="BF9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BG9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BH9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="BI9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="BJ9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="BK9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="BL9" s="35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="BM9" s="30"/>
     </row>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="F12" s="21">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45096</v>
       </c>
       <c r="G12" s="22">
         <v>3</v>
@@ -8617,7 +8617,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="21">
         <f ca="1">TODAY()+5</f>
-        <v>45091</v>
+        <v>45101</v>
       </c>
       <c r="G13" s="22">
         <v>1</v>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="F14" s="21">
         <f ca="1">F12-3</f>
-        <v>45083</v>
+        <v>45093</v>
       </c>
       <c r="G14" s="22">
         <v>10</v>
@@ -9107,7 +9107,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="21">
         <f ca="1">F12+20</f>
-        <v>45106</v>
+        <v>45116</v>
       </c>
       <c r="G15" s="22">
         <v>1</v>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="F16" s="21">
         <f ca="1">F12+6</f>
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="G16" s="22">
         <v>6</v>
@@ -9836,7 +9836,7 @@
       </c>
       <c r="F18" s="21">
         <f ca="1">F12+6</f>
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="G18" s="22">
         <v>13</v>
@@ -10082,7 +10082,7 @@
       </c>
       <c r="F19" s="21">
         <f ca="1">F18+2</f>
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="G19" s="22">
         <v>9</v>
@@ -10328,7 +10328,7 @@
       </c>
       <c r="F20" s="21">
         <f ca="1">F19+5</f>
-        <v>45099</v>
+        <v>45109</v>
       </c>
       <c r="G20" s="22">
         <v>11</v>
@@ -10572,7 +10572,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="21">
         <f ca="1">F20+2</f>
-        <v>45101</v>
+        <v>45111</v>
       </c>
       <c r="G21" s="22">
         <v>1</v>
@@ -10814,7 +10814,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="21">
         <f ca="1">F21+1</f>
-        <v>45102</v>
+        <v>45112</v>
       </c>
       <c r="G22" s="22">
         <v>24</v>
@@ -11295,7 +11295,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="21">
         <f ca="1">F12+15</f>
-        <v>45101</v>
+        <v>45111</v>
       </c>
       <c r="G24" s="22">
         <v>4</v>
@@ -11539,7 +11539,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="21">
         <f ca="1">F24+3</f>
-        <v>45104</v>
+        <v>45114</v>
       </c>
       <c r="G25" s="22">
         <v>14</v>
@@ -11783,7 +11783,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="21">
         <f ca="1">F25+15</f>
-        <v>45119</v>
+        <v>45129</v>
       </c>
       <c r="G26" s="22">
         <v>6</v>
@@ -12027,7 +12027,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="21">
         <f ca="1">F21+22</f>
-        <v>45123</v>
+        <v>45133</v>
       </c>
       <c r="G27" s="22">
         <v>3</v>
@@ -12271,7 +12271,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="21">
         <f ca="1">F16</f>
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="G28" s="22">
         <v>19</v>
@@ -12750,7 +12750,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="21">
         <f ca="1">F27+3</f>
-        <v>45126</v>
+        <v>45136</v>
       </c>
       <c r="G30" s="22">
         <v>15</v>
@@ -12992,7 +12992,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="21">
         <f ca="1">F30+14</f>
-        <v>45140</v>
+        <v>45150</v>
       </c>
       <c r="G31" s="22">
         <v>5</v>
@@ -13236,7 +13236,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="21">
         <f ca="1">F31+42</f>
-        <v>45182</v>
+        <v>45192</v>
       </c>
       <c r="G32" s="22">
         <v>1</v>
@@ -14603,7 +14603,7 @@
       </c>
       <c r="C6" s="73" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Hitos43524[Inicio])=0,TODAY(),B11(Hitos43524[Inicio])),TODAY())</f>
-        <v>45086</v>
+        <v>45096</v>
       </c>
       <c r="D6" s="73"/>
       <c r="E6" s="68"/>
@@ -14632,7 +14632,7 @@
       <c r="V6" s="83"/>
       <c r="W6" s="83" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v/>
+        <v>julio</v>
       </c>
       <c r="X6" s="83"/>
       <c r="Y6" s="83"/>
@@ -14642,7 +14642,7 @@
       <c r="AC6" s="83"/>
       <c r="AD6" s="83" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"mmmm")=W6,TEXT(AD7,"mmmm")=P6,TEXT(AD7,"mmmm")=I6),"",TEXT(AD7,"mmmm"))</f>
-        <v>julio</v>
+        <v/>
       </c>
       <c r="AE6" s="83"/>
       <c r="AF6" s="83"/>
@@ -14672,7 +14672,7 @@
       <c r="AX6" s="84"/>
       <c r="AY6" s="84" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v/>
+        <v>agosto</v>
       </c>
       <c r="AZ6" s="84"/>
       <c r="BA6" s="84"/>
@@ -14706,227 +14706,227 @@
       <c r="H7" s="75"/>
       <c r="I7" s="107">
         <f ca="1">IFERROR(Inicio_del_proyecto+Incremento_de_desplazamiento,TODAY())</f>
-        <v>45087</v>
+        <v>45097</v>
       </c>
       <c r="J7" s="108">
         <f ca="1">I7+1</f>
-        <v>45088</v>
+        <v>45098</v>
       </c>
       <c r="K7" s="108">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45089</v>
+        <v>45099</v>
       </c>
       <c r="L7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45090</v>
+        <v>45100</v>
       </c>
       <c r="M7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45091</v>
+        <v>45101</v>
       </c>
       <c r="N7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="O7" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>45093</v>
+        <v>45103</v>
       </c>
       <c r="P7" s="108">
         <f ca="1">O7+1</f>
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="Q7" s="108">
         <f ca="1">P7+1</f>
-        <v>45095</v>
+        <v>45105</v>
       </c>
       <c r="R7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45096</v>
+        <v>45106</v>
       </c>
       <c r="S7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45097</v>
+        <v>45107</v>
       </c>
       <c r="T7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45098</v>
+        <v>45108</v>
       </c>
       <c r="U7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45099</v>
+        <v>45109</v>
       </c>
       <c r="V7" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>45100</v>
+        <v>45110</v>
       </c>
       <c r="W7" s="108">
         <f ca="1">V7+1</f>
-        <v>45101</v>
+        <v>45111</v>
       </c>
       <c r="X7" s="108">
         <f ca="1">W7+1</f>
-        <v>45102</v>
+        <v>45112</v>
       </c>
       <c r="Y7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45103</v>
+        <v>45113</v>
       </c>
       <c r="Z7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45104</v>
+        <v>45114</v>
       </c>
       <c r="AA7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45105</v>
+        <v>45115</v>
       </c>
       <c r="AB7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45106</v>
+        <v>45116</v>
       </c>
       <c r="AC7" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>45107</v>
+        <v>45117</v>
       </c>
       <c r="AD7" s="108">
         <f ca="1">AC7+1</f>
-        <v>45108</v>
+        <v>45118</v>
       </c>
       <c r="AE7" s="108">
         <f ca="1">AD7+1</f>
-        <v>45109</v>
+        <v>45119</v>
       </c>
       <c r="AF7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45110</v>
+        <v>45120</v>
       </c>
       <c r="AG7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45111</v>
+        <v>45121</v>
       </c>
       <c r="AH7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45112</v>
+        <v>45122</v>
       </c>
       <c r="AI7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45113</v>
+        <v>45123</v>
       </c>
       <c r="AJ7" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>45114</v>
+        <v>45124</v>
       </c>
       <c r="AK7" s="108">
         <f ca="1">AJ7+1</f>
-        <v>45115</v>
+        <v>45125</v>
       </c>
       <c r="AL7" s="108">
         <f ca="1">AK7+1</f>
-        <v>45116</v>
+        <v>45126</v>
       </c>
       <c r="AM7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45117</v>
+        <v>45127</v>
       </c>
       <c r="AN7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45118</v>
+        <v>45128</v>
       </c>
       <c r="AO7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45119</v>
+        <v>45129</v>
       </c>
       <c r="AP7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45120</v>
+        <v>45130</v>
       </c>
       <c r="AQ7" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>45121</v>
+        <v>45131</v>
       </c>
       <c r="AR7" s="108">
         <f ca="1">AQ7+1</f>
-        <v>45122</v>
+        <v>45132</v>
       </c>
       <c r="AS7" s="108">
         <f ca="1">AR7+1</f>
-        <v>45123</v>
+        <v>45133</v>
       </c>
       <c r="AT7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45124</v>
+        <v>45134</v>
       </c>
       <c r="AU7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45125</v>
+        <v>45135</v>
       </c>
       <c r="AV7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45126</v>
+        <v>45136</v>
       </c>
       <c r="AW7" s="108">
         <f t="shared" ca="1" si="0"/>
-        <v>45127</v>
+        <v>45137</v>
       </c>
       <c r="AX7" s="109">
         <f t="shared" ca="1" si="0"/>
-        <v>45128</v>
+        <v>45138</v>
       </c>
       <c r="AY7" s="108">
         <f ca="1">AX7+1</f>
-        <v>45129</v>
+        <v>45139</v>
       </c>
       <c r="AZ7" s="108">
         <f ca="1">AY7+1</f>
-        <v>45130</v>
+        <v>45140</v>
       </c>
       <c r="BA7" s="108">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45131</v>
+        <v>45141</v>
       </c>
       <c r="BB7" s="108">
         <f t="shared" ca="1" si="1"/>
-        <v>45132</v>
+        <v>45142</v>
       </c>
       <c r="BC7" s="108">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45143</v>
       </c>
       <c r="BD7" s="108">
         <f t="shared" ca="1" si="1"/>
-        <v>45134</v>
+        <v>45144</v>
       </c>
       <c r="BE7" s="109">
         <f t="shared" ca="1" si="1"/>
-        <v>45135</v>
+        <v>45145</v>
       </c>
       <c r="BF7" s="108">
         <f ca="1">BE7+1</f>
-        <v>45136</v>
+        <v>45146</v>
       </c>
       <c r="BG7" s="108">
         <f ca="1">BF7+1</f>
-        <v>45137</v>
+        <v>45147</v>
       </c>
       <c r="BH7" s="108">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45138</v>
+        <v>45148</v>
       </c>
       <c r="BI7" s="108">
         <f t="shared" ca="1" si="2"/>
-        <v>45139</v>
+        <v>45149</v>
       </c>
       <c r="BJ7" s="108">
         <f t="shared" ca="1" si="2"/>
-        <v>45140</v>
+        <v>45150</v>
       </c>
       <c r="BK7" s="108">
         <f t="shared" ca="1" si="2"/>
-        <v>45141</v>
+        <v>45151</v>
       </c>
       <c r="BL7" s="109">
         <f t="shared" ca="1" si="2"/>
-        <v>45142</v>
+        <v>45152</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -15018,227 +15018,227 @@
       <c r="H9" s="80"/>
       <c r="I9" s="89" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="J9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="K9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="L9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="M9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="N9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="O9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="P9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="Q9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="R9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="S9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="T9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="U9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="V9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="W9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="X9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="Y9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="Z9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AA9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AB9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="AC9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="AD9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AE9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AF9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AG9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AH9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AI9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="AJ9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="AK9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AL9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AM9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AN9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AO9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AP9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="AQ9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="AR9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AS9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="AT9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AU9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="AV9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AW9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="AX9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="AY9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AZ9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BA9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="BB9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="BC9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="BD9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="BE9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
       <c r="BF9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BG9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="BH9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="BI9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>v</v>
       </c>
       <c r="BJ9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="BK9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>d</v>
       </c>
       <c r="BL9" s="89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>l</v>
       </c>
     </row>
     <row r="10" spans="1:68" ht="30.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15558,7 +15558,7 @@
       </c>
       <c r="F12" s="55">
         <f ca="1">TODAY()</f>
-        <v>45086</v>
+        <v>45096</v>
       </c>
       <c r="G12" s="56">
         <v>3</v>
@@ -15801,7 +15801,7 @@
       <c r="E13" s="54"/>
       <c r="F13" s="55">
         <f ca="1">TODAY()+5</f>
-        <v>45091</v>
+        <v>45101</v>
       </c>
       <c r="G13" s="56">
         <v>1</v>
@@ -16046,7 +16046,7 @@
       </c>
       <c r="F14" s="55">
         <f ca="1">F12-3</f>
-        <v>45083</v>
+        <v>45093</v>
       </c>
       <c r="G14" s="56">
         <v>10</v>
@@ -16289,7 +16289,7 @@
       <c r="E15" s="54"/>
       <c r="F15" s="55">
         <f ca="1">F12+20</f>
-        <v>45106</v>
+        <v>45116</v>
       </c>
       <c r="G15" s="56">
         <v>1</v>
@@ -16534,7 +16534,7 @@
       </c>
       <c r="F16" s="55">
         <f ca="1">F12+6</f>
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="G16" s="56">
         <v>6</v>
@@ -17015,7 +17015,7 @@
       </c>
       <c r="F18" s="55">
         <f ca="1">F12+6</f>
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="G18" s="56">
         <v>13</v>
@@ -17260,7 +17260,7 @@
       </c>
       <c r="F19" s="55">
         <f ca="1">F18+2</f>
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="G19" s="56">
         <v>9</v>
@@ -17505,7 +17505,7 @@
       </c>
       <c r="F20" s="55">
         <f ca="1">F19+5</f>
-        <v>45099</v>
+        <v>45109</v>
       </c>
       <c r="G20" s="56">
         <v>11</v>
@@ -17748,7 +17748,7 @@
       <c r="E21" s="54"/>
       <c r="F21" s="55">
         <f ca="1">F20+2</f>
-        <v>45101</v>
+        <v>45111</v>
       </c>
       <c r="G21" s="56">
         <v>1</v>
@@ -17989,7 +17989,7 @@
       <c r="E22" s="54"/>
       <c r="F22" s="55">
         <f ca="1">F21+1</f>
-        <v>45102</v>
+        <v>45112</v>
       </c>
       <c r="G22" s="56">
         <v>24</v>
@@ -18468,7 +18468,7 @@
       <c r="E24" s="54"/>
       <c r="F24" s="55">
         <f ca="1">F12+15</f>
-        <v>45101</v>
+        <v>45111</v>
       </c>
       <c r="G24" s="56">
         <v>4</v>
@@ -18711,7 +18711,7 @@
       <c r="E25" s="54"/>
       <c r="F25" s="55">
         <f ca="1">F24+3</f>
-        <v>45104</v>
+        <v>45114</v>
       </c>
       <c r="G25" s="56">
         <v>14</v>
@@ -18954,7 +18954,7 @@
       <c r="E26" s="54"/>
       <c r="F26" s="55">
         <f ca="1">F25+15</f>
-        <v>45119</v>
+        <v>45129</v>
       </c>
       <c r="G26" s="56">
         <v>6</v>
@@ -19197,7 +19197,7 @@
       <c r="E27" s="54"/>
       <c r="F27" s="55">
         <f ca="1">F21+22</f>
-        <v>45123</v>
+        <v>45133</v>
       </c>
       <c r="G27" s="56">
         <v>3</v>
@@ -19440,7 +19440,7 @@
       <c r="E28" s="54"/>
       <c r="F28" s="55">
         <f ca="1">F16</f>
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="G28" s="56">
         <v>19</v>
@@ -19917,7 +19917,7 @@
       <c r="E30" s="54"/>
       <c r="F30" s="55">
         <f ca="1">F27+3</f>
-        <v>45126</v>
+        <v>45136</v>
       </c>
       <c r="G30" s="56">
         <v>15</v>
@@ -20158,7 +20158,7 @@
       <c r="E31" s="54"/>
       <c r="F31" s="55">
         <f ca="1">F30+14</f>
-        <v>45140</v>
+        <v>45150</v>
       </c>
       <c r="G31" s="56">
         <v>5</v>
@@ -20401,7 +20401,7 @@
       <c r="E32" s="54"/>
       <c r="F32" s="55">
         <f ca="1">F31+42</f>
-        <v>45182</v>
+        <v>45192</v>
       </c>
       <c r="G32" s="56">
         <v>1</v>
@@ -21599,6 +21599,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21874,35 +21902,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21921,24 +21941,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>